--- a/NGONG BUTCHERS BUSINESS CENTER LIST OF OCCUPANCY.xlsx
+++ b/NGONG BUTCHERS BUSINESS CENTER LIST OF OCCUPANCY.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11520" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="11520" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="APRIL21" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -783,7 +778,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
   </numFmts>
@@ -935,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -973,6 +968,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,7 +1076,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1115,7 +1111,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1326,7 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -2732,14 +2728,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2835,24 +2832,27 @@
       <c r="D5" s="4">
         <v>80000</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>64500</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4">
         <v>300</v>
       </c>
       <c r="I5" s="3">
-        <f>'NOVEMBER 21'!L5:L77</f>
-        <v>77700</v>
+        <v>16500</v>
       </c>
       <c r="J5" s="3">
         <f>D5+E5+F5+G5+H5+I5</f>
-        <v>158000</v>
-      </c>
-      <c r="K5" s="3"/>
+        <v>161300</v>
+      </c>
+      <c r="K5" s="3">
+        <v>80000</v>
+      </c>
       <c r="L5" s="3">
         <f t="shared" ref="L5:L68" si="0">J5-K5</f>
-        <v>158000</v>
+        <v>81300</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,9 @@
       <c r="D7" s="4">
         <v>139080</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>1500</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2905,12 +2907,14 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
+        <v>140580</v>
+      </c>
+      <c r="K7" s="3">
         <v>139080</v>
       </c>
-      <c r="K7" s="3"/>
       <c r="L7" s="3">
         <f t="shared" si="0"/>
-        <v>139080</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -2969,10 +2973,12 @@
         <f t="shared" si="1"/>
         <v>40300</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>40300</v>
+      </c>
       <c r="L9" s="3">
         <f t="shared" si="0"/>
-        <v>40300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3002,10 +3008,12 @@
         <f t="shared" si="1"/>
         <v>50300</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>50300</v>
+      </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>50300</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>950</v>
@@ -3073,10 +3081,13 @@
         <f t="shared" si="1"/>
         <v>21900</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <f>20000</f>
+        <v>20000</v>
+      </c>
       <c r="L12" s="3">
         <f t="shared" si="0"/>
-        <v>21900</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3087,23 +3098,27 @@
         <v>228</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>23200</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>300</v>
+      </c>
       <c r="I13" s="3">
         <f>'NOVEMBER 21'!L13:L85</f>
         <v>9500</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>9500</v>
+        <v>33000</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
         <f t="shared" si="0"/>
-        <v>9500</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3133,10 +3148,12 @@
         <f t="shared" si="1"/>
         <v>12600</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>12000</v>
+      </c>
       <c r="L14" s="3">
         <f t="shared" si="0"/>
-        <v>12600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3152,24 +3169,28 @@
       <c r="D15" s="4">
         <v>65000</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4">
+        <v>69500</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4">
         <v>300</v>
       </c>
       <c r="I15" s="3">
-        <f>'NOVEMBER 21'!L15:L87</f>
-        <v>3600</v>
+        <v>2100</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>68900</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>136900</v>
+      </c>
+      <c r="K15" s="3">
+        <f>65000</f>
+        <v>65000</v>
+      </c>
       <c r="L15" s="3">
         <f t="shared" si="0"/>
-        <v>68900</v>
+        <v>71900</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3185,7 +3206,9 @@
       <c r="D16" s="4">
         <v>60000</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4">
+        <v>60000</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4">
@@ -3197,15 +3220,17 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>61800</v>
-      </c>
-      <c r="K16" s="3"/>
+        <v>121800</v>
+      </c>
+      <c r="K16" s="3">
+        <v>61000</v>
+      </c>
       <c r="L16" s="3">
         <f t="shared" si="0"/>
-        <v>61800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -3218,27 +3243,29 @@
       <c r="D17" s="4">
         <v>15000</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>20500</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <f>'NOVEMBER 21'!L17:L89</f>
-        <v>45100</v>
+        <f>'NOVEMBER 21'!L17:L89-1500</f>
+        <v>43600</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>60400</v>
+        <v>79400</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3">
         <f t="shared" si="0"/>
-        <v>60400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>79400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -3251,27 +3278,32 @@
       <c r="D18" s="4">
         <v>15000</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4">
+        <v>24500</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4">
         <v>300</v>
       </c>
       <c r="I18" s="3">
-        <f>'NOVEMBER 21'!L18:L90</f>
-        <v>3600</v>
+        <f>'NOVEMBER 21'!L18:L90-1500</f>
+        <v>2100</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>18900</v>
-      </c>
-      <c r="K18" s="3"/>
+        <v>41900</v>
+      </c>
+      <c r="K18" s="3">
+        <f>15000</f>
+        <v>15000</v>
+      </c>
       <c r="L18" s="3">
         <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -3306,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3319,27 +3351,29 @@
       <c r="D20" s="4">
         <v>10000</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4">
+        <v>10500</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4">
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <f>'NOVEMBER 21'!L20:L92</f>
-        <v>15150</v>
+        <f>'NOVEMBER 21'!L20:L92-1500</f>
+        <v>13650</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
-        <v>25450</v>
+        <v>34450</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3">
         <f t="shared" si="0"/>
-        <v>25450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>34450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -3364,13 +3398,19 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>10000</v>
+      </c>
       <c r="L21" s="3">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>56500+2400</f>
+        <v>58900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -3397,13 +3437,19 @@
         <f t="shared" si="1"/>
         <v>13900</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>10000</v>
+      </c>
       <c r="L22" s="3">
         <f t="shared" si="0"/>
-        <v>13900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3900</v>
+      </c>
+      <c r="M22">
+        <f>M21+E17</f>
+        <v>79400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -3416,27 +3462,29 @@
       <c r="D23" s="4">
         <v>12000</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4">
+        <v>18500</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4">
         <v>300</v>
       </c>
       <c r="I23" s="3">
-        <f>'NOVEMBER 21'!L23:L95</f>
-        <v>45600</v>
+        <f>'NOVEMBER 21'!L23:L95-1500</f>
+        <v>44100</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>57900</v>
+        <v>74900</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3">
         <f t="shared" si="0"/>
-        <v>57900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -3449,27 +3497,31 @@
       <c r="D24" s="4">
         <v>10000</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4">
+        <v>8500</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4">
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <f>'NOVEMBER 21'!L24:L96</f>
-        <v>5600</v>
+        <f>'NOVEMBER 21'!L24:L96-1500</f>
+        <v>4100</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="1"/>
-        <v>15900</v>
-      </c>
-      <c r="K24" s="3"/>
+        <v>22900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10000</v>
+      </c>
       <c r="L24" s="3">
         <f t="shared" si="0"/>
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -3500,7 +3552,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
@@ -3527,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
@@ -3554,13 +3606,16 @@
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
       <c r="L27" s="3">
         <f t="shared" si="0"/>
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -3581,19 +3636,21 @@
       </c>
       <c r="I28" s="3">
         <f>'NOVEMBER 21'!L28:L100</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="1"/>
-        <v>12200</v>
-      </c>
-      <c r="K28" s="9"/>
+        <v>11900</v>
+      </c>
+      <c r="K28" s="9">
+        <v>11900</v>
+      </c>
       <c r="L28" s="3">
         <f t="shared" si="0"/>
-        <v>12200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
@@ -3620,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>102</v>
       </c>
@@ -3647,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>103</v>
       </c>
@@ -3660,27 +3717,31 @@
       <c r="D31" s="4">
         <v>9000</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4">
+        <v>14500</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4">
         <v>300</v>
       </c>
       <c r="I31" s="3">
-        <f>'NOVEMBER 21'!L31:L103</f>
-        <v>5600</v>
+        <f>'NOVEMBER 21'!L31:L103-1500</f>
+        <v>4100</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="1"/>
-        <v>14900</v>
-      </c>
-      <c r="K31" s="3"/>
+        <v>27900</v>
+      </c>
+      <c r="K31" s="3">
+        <v>9000</v>
+      </c>
       <c r="L31" s="3">
         <f>J31-K31</f>
-        <v>14900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>104</v>
       </c>
@@ -3724,24 +3785,26 @@
       <c r="D33" s="4">
         <v>12000</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4">
+        <v>16500</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4">
         <v>300</v>
       </c>
       <c r="I33" s="3">
-        <f>'NOVEMBER 21'!L33:L105</f>
-        <v>15600</v>
+        <f>'NOVEMBER 21'!L33:L105-1500</f>
+        <v>14100</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>27900</v>
+        <v>42900</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3">
         <f>J33-K33</f>
-        <v>27900</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3757,7 +3820,9 @@
       <c r="D34" s="4">
         <v>12000</v>
       </c>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4">
+        <v>4500</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4">
@@ -3769,12 +3834,12 @@
       </c>
       <c r="J34" s="3">
         <f t="shared" si="1"/>
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3829,16 +3894,16 @@
       </c>
       <c r="I36" s="3">
         <f>'NOVEMBER 21'!L36:L108</f>
-        <v>11500</v>
+        <v>31800</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>21800</v>
+        <v>42100</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
         <f t="shared" si="0"/>
-        <v>21800</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3854,7 +3919,9 @@
       <c r="D37" s="8">
         <v>13000</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8">
+        <v>1500</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="8"/>
       <c r="H37" s="4">
@@ -3865,7 +3932,7 @@
         <v>-11654</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="1"/>
+        <f>D37+E37+F37+G37+H37+I37-1500</f>
         <v>1646</v>
       </c>
       <c r="K37" s="3"/>
@@ -3887,24 +3954,26 @@
       <c r="D38" s="8">
         <v>10000</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8">
+        <v>11500</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="8"/>
       <c r="H38" s="4">
         <v>300</v>
       </c>
-      <c r="I38" s="3">
-        <f>'NOVEMBER 21'!L38:L110</f>
-        <v>1500</v>
-      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3">
         <f t="shared" si="1"/>
-        <v>11800</v>
-      </c>
-      <c r="K38" s="3"/>
+        <v>21800</v>
+      </c>
+      <c r="K38" s="3">
+        <f>10300</f>
+        <v>10300</v>
+      </c>
       <c r="L38" s="3">
         <f t="shared" si="0"/>
-        <v>11800</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3920,24 +3989,28 @@
       <c r="D39" s="4">
         <v>12000</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4">
+        <v>1500</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4">
         <v>300</v>
       </c>
       <c r="I39" s="3">
-        <f>'NOVEMBER 21'!L39:L111</f>
-        <v>5500</v>
+        <f>'NOVEMBER 21'!L39:L111-1500</f>
+        <v>4000</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="1"/>
         <v>17800</v>
       </c>
-      <c r="K39" s="3"/>
+      <c r="K39" s="3">
+        <v>10000</v>
+      </c>
       <c r="L39" s="3">
         <f t="shared" si="0"/>
-        <v>17800</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4019,7 +4092,9 @@
       <c r="D42" s="8">
         <v>12000</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8">
+        <v>12000</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="8"/>
       <c r="H42" s="4">
@@ -4031,12 +4106,15 @@
       </c>
       <c r="J42" s="3">
         <f t="shared" si="1"/>
+        <v>24900</v>
+      </c>
+      <c r="K42" s="3">
+        <f>12900</f>
         <v>12900</v>
       </c>
-      <c r="K42" s="3"/>
       <c r="L42" s="3">
         <f t="shared" si="0"/>
-        <v>12900</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4052,7 +4130,9 @@
       <c r="D43" s="4">
         <v>12000</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4">
+        <v>12000</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
@@ -4064,10 +4144,11 @@
       </c>
       <c r="J43" s="3">
         <f t="shared" si="1"/>
-        <v>12300</v>
+        <v>24300</v>
       </c>
       <c r="K43" s="3">
-        <v>12300</v>
+        <f>12300+12000</f>
+        <v>24300</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="0"/>
@@ -4231,24 +4312,28 @@
       <c r="D49" s="4">
         <v>12000</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4">
+        <v>23500</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4">
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <f>'NOVEMBER 21'!L49:L121</f>
-        <v>1500</v>
+        <f>'NOVEMBER 21'!L49:L121-1500</f>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="1"/>
-        <v>13800</v>
-      </c>
-      <c r="K49" s="3"/>
+        <v>35800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>12300</v>
+      </c>
       <c r="L49" s="3">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4318,24 +4403,28 @@
       <c r="D52" s="4">
         <v>9870</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4">
+        <v>12740</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4">
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <f>'NOVEMBER 21'!L52:L124</f>
-        <v>5090</v>
+        <f>'NOVEMBER 21'!L52:L124-1500</f>
+        <v>3590</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="1"/>
-        <v>15260</v>
-      </c>
-      <c r="K52" s="3"/>
+        <v>26500</v>
+      </c>
+      <c r="K52" s="3">
+        <v>10000</v>
+      </c>
       <c r="L52" s="3">
         <f t="shared" si="0"/>
-        <v>15260</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4594,24 +4683,28 @@
       <c r="D62" s="4">
         <v>8000</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4">
+        <v>12500</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4">
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <f>'NOVEMBER 21'!L62:L134</f>
-        <v>1500</v>
+        <f>'NOVEMBER 21'!L62:L134-1500</f>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="1"/>
-        <v>9800</v>
-      </c>
-      <c r="K62" s="3"/>
+        <v>20800</v>
+      </c>
+      <c r="K62" s="3">
+        <v>8300</v>
+      </c>
       <c r="L62" s="3">
         <f t="shared" si="0"/>
-        <v>9800</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4627,24 +4720,28 @@
       <c r="D63" s="4">
         <v>8000</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4">
+        <v>12500</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4">
         <v>300</v>
       </c>
       <c r="I63" s="3">
-        <f>'NOVEMBER 21'!L63:L135</f>
-        <v>14100</v>
+        <f>'NOVEMBER 21'!L63:L135-1500</f>
+        <v>12600</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="1"/>
-        <v>22400</v>
-      </c>
-      <c r="K63" s="3"/>
+        <v>33400</v>
+      </c>
+      <c r="K63" s="3">
+        <v>8000</v>
+      </c>
       <c r="L63" s="3">
         <f t="shared" si="0"/>
-        <v>22400</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4660,24 +4757,26 @@
       <c r="D64" s="4">
         <v>8000</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4">
+        <v>10500</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4">
         <v>300</v>
       </c>
       <c r="I64" s="3">
-        <f>'NOVEMBER 21'!L64:L136</f>
-        <v>8100</v>
+        <f>'NOVEMBER 21'!L64:L136-1500</f>
+        <v>6600</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="1"/>
-        <v>16400</v>
+        <v>25400</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3">
         <f t="shared" si="0"/>
-        <v>16400</v>
+        <v>25400</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4693,24 +4792,26 @@
       <c r="D65" s="4">
         <v>8000</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4">
+        <v>10500</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4">
         <v>300</v>
       </c>
       <c r="I65" s="3">
-        <f>'NOVEMBER 21'!L65:L137</f>
-        <v>33600</v>
+        <f>'NOVEMBER 21'!L65:L137-1500</f>
+        <v>32100</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="1"/>
-        <v>41900</v>
+        <v>50900</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3">
         <f t="shared" si="0"/>
-        <v>41900</v>
+        <v>50900</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4724,7 +4825,9 @@
       <c r="D66" s="4">
         <v>6500</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4">
+        <v>11000</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4">
@@ -4736,12 +4839,12 @@
       </c>
       <c r="J66" s="3">
         <f t="shared" si="1"/>
-        <v>36400</v>
+        <v>47400</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3">
         <f t="shared" si="0"/>
-        <v>36400</v>
+        <v>47400</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4755,7 +4858,9 @@
       <c r="D67" s="4">
         <v>6500</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4">
+        <v>11000</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -4765,12 +4870,12 @@
       </c>
       <c r="J67" s="3">
         <f t="shared" si="1"/>
-        <v>28500</v>
+        <v>39500</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3">
         <f t="shared" si="0"/>
-        <v>28500</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4786,26 +4891,28 @@
       <c r="D68" s="4">
         <v>15000</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4">
+        <v>19500</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4">
         <v>300</v>
       </c>
       <c r="I68" s="3">
-        <f>'NOVEMBER 21'!L68:L140</f>
-        <v>3600</v>
+        <f>'NOVEMBER 21'!L68:L140-1500</f>
+        <v>2100</v>
       </c>
       <c r="J68" s="3">
         <f t="shared" si="1"/>
-        <v>18900</v>
+        <v>36900</v>
       </c>
       <c r="K68" s="3">
         <v>15600</v>
       </c>
       <c r="L68" s="3">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4821,24 +4928,28 @@
       <c r="D69" s="4">
         <v>15000</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4">
+        <v>14500</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4">
         <v>300</v>
       </c>
       <c r="I69" s="3">
-        <f>'NOVEMBER 21'!L69:L141</f>
-        <v>2700</v>
+        <f>'NOVEMBER 21'!L69:L141-1500</f>
+        <v>1200</v>
       </c>
       <c r="J69" s="3">
         <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-      <c r="K69" s="3"/>
+        <v>31000</v>
+      </c>
+      <c r="K69" s="3">
+        <v>15000</v>
+      </c>
       <c r="L69" s="3">
-        <f t="shared" ref="L69:L74" si="2">J69-K69</f>
-        <v>18000</v>
+        <f t="shared" ref="L69:L75" si="2">J69-K69</f>
+        <v>16000</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4854,24 +4965,28 @@
       <c r="D70" s="4">
         <v>20000</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E70" s="8">
+        <v>23000</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4">
         <v>300</v>
       </c>
       <c r="I70" s="3">
-        <f>'NOVEMBER 21'!L70:L142</f>
-        <v>23900</v>
+        <v>900</v>
       </c>
       <c r="J70" s="7">
         <f>D70+E70+F70+G70+H70+I70</f>
         <v>44200</v>
       </c>
-      <c r="K70" s="7"/>
+      <c r="K70" s="7">
+        <f>20000</f>
+        <v>20000</v>
+      </c>
       <c r="L70" s="3">
         <f t="shared" si="2"/>
-        <v>44200</v>
+        <v>24200</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4887,7 +5002,9 @@
       <c r="D71" s="4">
         <v>20000</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4">
+        <v>3500</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4897,12 +5014,14 @@
       </c>
       <c r="J71" s="3">
         <f t="shared" ref="J71:J77" si="3">D71+E71+F71+G71+H71+I71</f>
+        <v>23500</v>
+      </c>
+      <c r="K71" s="3">
         <v>20000</v>
       </c>
-      <c r="K71" s="3"/>
       <c r="L71" s="3">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4947,24 +5066,26 @@
       <c r="D73" s="4">
         <v>15000</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4">
+        <v>29500</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4">
         <v>300</v>
       </c>
       <c r="I73" s="3">
-        <f>'NOVEMBER 21'!L73:L145</f>
-        <v>43600</v>
+        <f>'NOVEMBER 21'!L73:L145-1500</f>
+        <v>42100</v>
       </c>
       <c r="J73" s="3">
         <f t="shared" si="3"/>
-        <v>58900</v>
+        <v>86900</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3">
         <f t="shared" si="2"/>
-        <v>58900</v>
+        <v>86900</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -4976,7 +5097,9 @@
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4">
+        <v>4499.6000000000004</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -4986,12 +5109,12 @@
       </c>
       <c r="J74" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4499.6000000000004</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4499.6000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5004,22 +5127,27 @@
       <c r="D75" s="4">
         <v>23200</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4">
+        <v>2000</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4">
         <v>300</v>
       </c>
-      <c r="I75" s="3">
-        <f>'NOVEMBER 21'!L75:L147</f>
-        <v>0</v>
-      </c>
+      <c r="I75" s="3"/>
       <c r="J75" s="3">
         <f t="shared" si="3"/>
-        <v>23500</v>
-      </c>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+        <v>25500</v>
+      </c>
+      <c r="K75" s="3">
+        <f>23000+2000</f>
+        <v>25000</v>
+      </c>
+      <c r="L75" s="3">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -5046,10 +5174,13 @@
         <f t="shared" si="3"/>
         <v>27300</v>
       </c>
-      <c r="K76" s="3"/>
+      <c r="K76" s="3">
+        <f>23000</f>
+        <v>23000</v>
+      </c>
       <c r="L76" s="3">
         <f>J76-K76</f>
-        <v>27300</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5087,11 +5218,11 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4">
         <f t="shared" ref="D78:L78" si="4">SUM(D5:D77)</f>
-        <v>975670</v>
+        <v>998870</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>552739.6</v>
       </c>
       <c r="F78" s="4">
         <f t="shared" si="4"/>
@@ -5103,23 +5234,23 @@
       </c>
       <c r="H78" s="4">
         <f t="shared" si="4"/>
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="I78" s="3">
         <f>SUM(I5:I77)</f>
-        <v>494146</v>
+        <v>401446</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="4"/>
-        <v>1483316</v>
+        <v>1965355.6</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="4"/>
-        <v>87400</v>
+        <v>817780</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>1372416</v>
+        <v>1147575.6000000001</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5129,7 +5260,7 @@
       <c r="C79" s="16"/>
       <c r="D79" s="17">
         <f>100/116*D78</f>
-        <v>841094.82758620684</v>
+        <v>861094.82758620684</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -5197,7 +5328,7 @@
       </c>
       <c r="C83" s="22">
         <f>D79</f>
-        <v>841094.82758620684</v>
+        <v>861094.82758620684</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="3"/>
@@ -5207,7 +5338,7 @@
       </c>
       <c r="H83" s="22">
         <f>K78</f>
-        <v>87400</v>
+        <v>817780</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="11"/>
@@ -5219,7 +5350,7 @@
       </c>
       <c r="C84" s="22">
         <f>H78</f>
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="3"/>
@@ -5236,7 +5367,7 @@
       </c>
       <c r="C85" s="22">
         <f>D78-D79</f>
-        <v>134575.17241379316</v>
+        <v>137775.17241379316</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="3"/>
@@ -5246,7 +5377,7 @@
       </c>
       <c r="H85" s="22">
         <f>'NOVEMBER 21'!J96</f>
-        <v>-41046.724137931131</v>
+        <v>-0.72413793113082647</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="11"/>
@@ -5258,7 +5389,7 @@
       </c>
       <c r="C86" s="3">
         <f>E78</f>
-        <v>0</v>
+        <v>552739.6</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5309,7 +5440,7 @@
       </c>
       <c r="C89" s="30">
         <f>'NOVEMBER 21'!F96</f>
-        <v>493549.27586206887</v>
+        <v>544295.27586206887</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5348,7 +5479,7 @@
       <c r="D91" s="31"/>
       <c r="E91" s="22">
         <f>C91*C83</f>
-        <v>42054.741379310348</v>
+        <v>43054.741379310348</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
@@ -5359,7 +5490,7 @@
       </c>
       <c r="I91" s="22">
         <f>H91*C83</f>
-        <v>42054.741379310348</v>
+        <v>43054.741379310348</v>
       </c>
       <c r="J91" s="20"/>
       <c r="K91" s="33"/>
@@ -5402,7 +5533,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3">
         <f>K78</f>
-        <v>87400</v>
+        <v>817780</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="32" t="s">
@@ -5411,7 +5542,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3">
         <f>K78</f>
-        <v>87400</v>
+        <v>817780</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="2"/>
@@ -5434,31 +5565,31 @@
       </c>
       <c r="C96" s="22">
         <f>C83+C84+C85+C86+C87+C88+C89+C90</f>
-        <v>1482719.2758620689</v>
+        <v>2109704.875862069</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="24">
         <f>SUM(E91:E95)</f>
-        <v>129454.74137931035</v>
+        <v>860834.74137931038</v>
       </c>
       <c r="F96" s="22">
         <f>C96-E96</f>
-        <v>1353264.5344827585</v>
+        <v>1248870.1344827586</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>199</v>
       </c>
       <c r="H96" s="22">
         <f>H83+H84+H85+H86+H87+H88+H89+H90</f>
-        <v>46353.275862068869</v>
+        <v>817779.27586206887</v>
       </c>
       <c r="I96" s="22">
         <f>SUM(I91:I95)</f>
-        <v>129454.74137931035</v>
+        <v>860834.74137931038</v>
       </c>
       <c r="J96" s="22">
         <f>H96-I96</f>
-        <v>-83101.465517241479</v>
+        <v>-43055.465517241508</v>
       </c>
       <c r="K96" s="2"/>
     </row>
@@ -5476,7 +5607,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="33">
         <f>I96-I91</f>
-        <v>87400</v>
+        <v>817780</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>202</v>
@@ -5510,8 +5641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5981,7 +6112,10 @@
         <f t="shared" ref="L15:L72" si="2">J15-K15</f>
         <v>1800</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <f>E14+G14+F14</f>
+        <v>18500</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -8407,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9599,13 +9733,12 @@
         <v>0</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -10982,7 +11115,7 @@
       </c>
       <c r="J78" s="3">
         <f t="shared" si="4"/>
-        <v>1149990</v>
+        <v>1160290</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="4"/>
@@ -10990,7 +11123,7 @@
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>181620</v>
+        <v>191920</v>
       </c>
       <c r="M78" s="1"/>
     </row>
@@ -11409,8 +11542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12641,18 +12774,18 @@
       </c>
       <c r="I36" s="3">
         <f>'JUNE 21'!L36:L108</f>
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>10300</v>
+        <v>20600</v>
       </c>
       <c r="K36" s="3">
         <v>30000</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="2"/>
-        <v>-19700</v>
+        <v>-9400</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -14022,11 +14155,11 @@
       </c>
       <c r="I78" s="3">
         <f>SUM(I5:I77)</f>
-        <v>181620</v>
+        <v>191920</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="4"/>
-        <v>1282940</v>
+        <v>1293240</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="4"/>
@@ -14034,7 +14167,7 @@
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>133973</v>
+        <v>144273</v>
       </c>
       <c r="M78" s="1"/>
     </row>
@@ -14449,8 +14582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15671,16 +15804,16 @@
       </c>
       <c r="I36" s="3">
         <f>'JULY 21'!L36:L108</f>
-        <v>-19700</v>
+        <v>-9400</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>-9400</v>
+        <v>900</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
         <f t="shared" si="2"/>
-        <v>-9400</v>
+        <v>900</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -17077,11 +17210,11 @@
       </c>
       <c r="I78" s="3">
         <f>SUM(I5:I77)</f>
-        <v>133973</v>
+        <v>144273</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="4"/>
-        <v>1342123</v>
+        <v>1352423</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="4"/>
@@ -17089,7 +17222,7 @@
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>243043</v>
+        <v>253343</v>
       </c>
       <c r="M78" s="1"/>
     </row>
@@ -17505,8 +17638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18673,16 +18806,16 @@
       </c>
       <c r="I36" s="3">
         <f>'AUGUST 21'!L36:L172</f>
-        <v>-9400</v>
+        <v>900</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>11200</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -19997,11 +20130,11 @@
       </c>
       <c r="I78" s="3">
         <f>SUM(I5:I77)</f>
-        <v>275293</v>
+        <v>285593</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="4"/>
-        <v>1300963</v>
+        <v>1311263</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="4"/>
@@ -20009,7 +20142,7 @@
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>399863</v>
+        <v>410163</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -20422,8 +20555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21583,19 +21716,16 @@
       </c>
       <c r="I36" s="3">
         <f>'SEPT 21'!L36:L109</f>
-        <v>900</v>
+        <v>11200</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>11200</v>
-      </c>
-      <c r="K36" s="3">
-        <f>10000</f>
-        <v>10000</v>
-      </c>
+        <v>21500</v>
+      </c>
+      <c r="K36" s="3"/>
       <c r="L36" s="3">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -22913,19 +23043,19 @@
       </c>
       <c r="I78" s="3">
         <f>SUM(I5:I77)</f>
-        <v>396363</v>
+        <v>406663</v>
       </c>
       <c r="J78" s="3">
         <f t="shared" si="4"/>
-        <v>1475233</v>
+        <v>1485533</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="4"/>
-        <v>1029727</v>
+        <v>1019727</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>445506</v>
+        <v>465806</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -23013,7 +23143,7 @@
       </c>
       <c r="H83" s="22">
         <f>K78</f>
-        <v>1029727</v>
+        <v>1019727</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="11"/>
@@ -23210,7 +23340,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3">
         <f>K78</f>
-        <v>1029727</v>
+        <v>1019727</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="32" t="s">
@@ -23219,7 +23349,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3">
         <f>K78</f>
-        <v>1029727</v>
+        <v>1019727</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="2"/>
@@ -23247,22 +23377,22 @@
       <c r="D96" s="22"/>
       <c r="E96" s="24">
         <f>SUM(E91:E95)</f>
-        <v>1073691.2241379311</v>
+        <v>1063691.2241379311</v>
       </c>
       <c r="F96" s="22">
         <f>C96-E96</f>
-        <v>416755.39655172406</v>
+        <v>426755.39655172406</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>199</v>
       </c>
       <c r="H96" s="22">
         <f>H83+H84+H85+H86+H87+H88+H89+H90</f>
-        <v>1073690.6206896552</v>
+        <v>1063690.6206896552</v>
       </c>
       <c r="I96" s="22">
         <f>SUM(I91:I95)</f>
-        <v>1073691.2241379311</v>
+        <v>1063691.2241379311</v>
       </c>
       <c r="J96" s="22">
         <f>H96-I96</f>
@@ -23270,7 +23400,7 @@
       </c>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>200</v>
       </c>
@@ -23284,14 +23414,15 @@
       <c r="H97" s="2"/>
       <c r="I97" s="33">
         <f>I96-I91</f>
-        <v>1029727.0000000001</v>
+        <v>1019727.0000000001</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>202</v>
       </c>
       <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L97" s="37"/>
+    </row>
+    <row r="98" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>203</v>
       </c>
@@ -23599,8 +23730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A78"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24496,11 +24627,12 @@
         <v>11900</v>
       </c>
       <c r="K28" s="9">
-        <v>11600</v>
+        <f>11600+300</f>
+        <v>11900</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -24740,16 +24872,16 @@
       </c>
       <c r="I36" s="3">
         <f>'OCTOBER  21'!L36:L108</f>
-        <v>1200</v>
+        <v>21500</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="1"/>
-        <v>11500</v>
+        <v>31800</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -25769,7 +25901,7 @@
         <v>15600</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" ref="L69:L74" si="2">J69-K69</f>
+        <f t="shared" ref="L69:L75" si="2">J69-K69</f>
         <v>2700</v>
       </c>
     </row>
@@ -25952,7 +26084,10 @@
         <v>2000</v>
       </c>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="L75" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -26042,19 +26177,19 @@
       </c>
       <c r="I78" s="3">
         <f>SUM(I5:I77)</f>
-        <v>378306</v>
+        <v>398606</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="4"/>
-        <v>1343776</v>
+        <f>SUM(J5:J77)</f>
+        <v>1364076</v>
       </c>
       <c r="K78" s="3">
         <f t="shared" si="4"/>
-        <v>847630</v>
+        <v>847930</v>
       </c>
       <c r="L78" s="3">
         <f t="shared" si="4"/>
-        <v>494146</v>
+        <v>516146</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -26143,7 +26278,7 @@
       </c>
       <c r="H83" s="22">
         <f>K78</f>
-        <v>847630</v>
+        <v>847930</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="11"/>
@@ -26237,7 +26372,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="2"/>
+      <c r="K88" s="33"/>
     </row>
     <row r="89" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="29" t="s">
@@ -26245,7 +26380,7 @@
       </c>
       <c r="C89" s="30">
         <f>'OCTOBER  21'!F96</f>
-        <v>416755.39655172406</v>
+        <v>426755.39655172406</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -26260,7 +26395,9 @@
       <c r="B90" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3">
+        <v>41046</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -26268,11 +26405,11 @@
         <v>194</v>
       </c>
       <c r="H90" s="3">
-        <v>0</v>
+        <v>41046</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="2"/>
+      <c r="K90" s="33"/>
     </row>
     <row r="91" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
@@ -26338,7 +26475,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="3">
         <f>K78</f>
-        <v>847630</v>
+        <v>847930</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="32" t="s">
@@ -26347,7 +26484,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3">
         <f>K78</f>
-        <v>847630</v>
+        <v>847930</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="2"/>
@@ -26370,31 +26507,31 @@
       </c>
       <c r="C96" s="22">
         <f>C83+C84+C85+C86+C87+C88+C89+C90</f>
-        <v>1382225.3965517241</v>
+        <v>1433271.3965517241</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="24">
         <f>SUM(E91:E95)</f>
-        <v>888676.12068965519</v>
+        <v>888976.12068965519</v>
       </c>
       <c r="F96" s="22">
         <f>C96-E96</f>
-        <v>493549.27586206887</v>
+        <v>544295.27586206887</v>
       </c>
       <c r="G96" s="23" t="s">
         <v>199</v>
       </c>
       <c r="H96" s="22">
         <f>H83+H84+H85+H86+H87+H88+H89+H90</f>
-        <v>847629.39655172406</v>
+        <v>888975.39655172406</v>
       </c>
       <c r="I96" s="22">
         <f>SUM(I91:I95)</f>
-        <v>888676.12068965519</v>
+        <v>888976.12068965519</v>
       </c>
       <c r="J96" s="22">
         <f>H96-I96</f>
-        <v>-41046.724137931131</v>
+        <v>-0.72413793113082647</v>
       </c>
       <c r="K96" s="2"/>
     </row>
@@ -26412,7 +26549,7 @@
       <c r="H97" s="2"/>
       <c r="I97" s="33">
         <f>I96-I91</f>
-        <v>847630</v>
+        <v>847930</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>202</v>
